--- a/va_facility_data_2025-02-20/Charlie Dowd VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Charlie%20Dowd%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Charlie Dowd VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Charlie%20Dowd%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R9d64cf173d9347d9821b9f4a835afc21"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6332ba629fd9421a86c4372bb574f09b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1d0bd3ad6f6d4cb596595853a2f57f92"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2484c640940e46c2b81b0828cd5e42e4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5a12a113dd1c435b9b6bd61dd7f49ff5"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R198bad278ef944c282c0983463bf92f4"/>
   </x:sheets>
 </x:workbook>
 </file>
